--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -920,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6001,6 +6004,35 @@
         <v>27915</v>
       </c>
     </row>
+    <row r="176" spans="1:9">
+      <c r="A176" t="s">
+        <v>183</v>
+      </c>
+      <c r="B176">
+        <v>56351</v>
+      </c>
+      <c r="C176">
+        <v>682</v>
+      </c>
+      <c r="D176">
+        <v>3462</v>
+      </c>
+      <c r="E176">
+        <v>7802</v>
+      </c>
+      <c r="F176">
+        <v>3605</v>
+      </c>
+      <c r="G176">
+        <v>6484</v>
+      </c>
+      <c r="H176">
+        <v>6875</v>
+      </c>
+      <c r="I176">
+        <v>27441</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I176"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6033,6 +6036,14 @@
         <v>27441</v>
       </c>
     </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177">
+        <v>56804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -5954,7 +5954,7 @@
         <v>181</v>
       </c>
       <c r="B174">
-        <v>62476</v>
+        <v>62522</v>
       </c>
       <c r="C174">
         <v>652</v>
@@ -5972,10 +5972,10 @@
         <v>7107</v>
       </c>
       <c r="H174">
-        <v>6621</v>
+        <v>6651</v>
       </c>
       <c r="I174">
-        <v>28417</v>
+        <v>28433</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -5983,7 +5983,7 @@
         <v>182</v>
       </c>
       <c r="B175">
-        <v>59032</v>
+        <v>59078</v>
       </c>
       <c r="C175">
         <v>484</v>
@@ -6001,10 +6001,10 @@
         <v>6888</v>
       </c>
       <c r="H175">
-        <v>6321</v>
+        <v>6351</v>
       </c>
       <c r="I175">
-        <v>27915</v>
+        <v>27930</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6012,7 +6012,7 @@
         <v>183</v>
       </c>
       <c r="B176">
-        <v>56351</v>
+        <v>56397</v>
       </c>
       <c r="C176">
         <v>682</v>
@@ -6030,18 +6030,39 @@
         <v>6484</v>
       </c>
       <c r="H176">
-        <v>6875</v>
+        <v>6905</v>
       </c>
       <c r="I176">
-        <v>27441</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>27456</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>184</v>
       </c>
       <c r="B177">
-        <v>56804</v>
+        <v>56850</v>
+      </c>
+      <c r="C177">
+        <v>264</v>
+      </c>
+      <c r="D177">
+        <v>3561</v>
+      </c>
+      <c r="E177">
+        <v>8979</v>
+      </c>
+      <c r="F177">
+        <v>3595</v>
+      </c>
+      <c r="G177">
+        <v>6496</v>
+      </c>
+      <c r="H177">
+        <v>6584</v>
+      </c>
+      <c r="I177">
+        <v>27371</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6065,6 +6068,14 @@
         <v>27371</v>
       </c>
     </row>
+    <row r="178" spans="1:9">
+      <c r="A178" t="s">
+        <v>185</v>
+      </c>
+      <c r="B178">
+        <v>59801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -5986,7 +5986,7 @@
         <v>182</v>
       </c>
       <c r="B175">
-        <v>59078</v>
+        <v>59118</v>
       </c>
       <c r="C175">
         <v>484</v>
@@ -6007,7 +6007,7 @@
         <v>6351</v>
       </c>
       <c r="I175">
-        <v>27930</v>
+        <v>27970</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6015,7 +6015,7 @@
         <v>183</v>
       </c>
       <c r="B176">
-        <v>56397</v>
+        <v>56437</v>
       </c>
       <c r="C176">
         <v>682</v>
@@ -6036,7 +6036,7 @@
         <v>6905</v>
       </c>
       <c r="I176">
-        <v>27456</v>
+        <v>27496</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6044,7 +6044,7 @@
         <v>184</v>
       </c>
       <c r="B177">
-        <v>56850</v>
+        <v>56890</v>
       </c>
       <c r="C177">
         <v>264</v>
@@ -6065,7 +6065,7 @@
         <v>6584</v>
       </c>
       <c r="I177">
-        <v>27371</v>
+        <v>27411</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6074,6 +6074,27 @@
       </c>
       <c r="B178">
         <v>59801</v>
+      </c>
+      <c r="C178">
+        <v>393</v>
+      </c>
+      <c r="D178">
+        <v>5364</v>
+      </c>
+      <c r="E178">
+        <v>8867</v>
+      </c>
+      <c r="F178">
+        <v>4452</v>
+      </c>
+      <c r="G178">
+        <v>6063</v>
+      </c>
+      <c r="H178">
+        <v>7688</v>
+      </c>
+      <c r="I178">
+        <v>26975</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/1/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>Serie</t>
   </si>
@@ -572,6 +572,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -929,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I178"/>
+  <dimension ref="A1:I179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6097,6 +6100,14 @@
         <v>26975</v>
       </c>
     </row>
+    <row r="179" spans="1:9">
+      <c r="A179" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179">
+        <v>59898</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
